--- a/data/pca/factorExposure/factorExposure_2012-07-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-10.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0174976740335174</v>
+        <v>0.0225939300451912</v>
       </c>
       <c r="C2">
-        <v>0.02763286977294235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02425749298269418</v>
+      </c>
+      <c r="D2">
+        <v>-0.005702621626277184</v>
+      </c>
+      <c r="E2">
+        <v>0.01647461839261298</v>
+      </c>
+      <c r="F2">
+        <v>0.005944320936608312</v>
+      </c>
+      <c r="G2">
+        <v>-0.01594986751008319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06880197752976246</v>
+        <v>0.07498038334051904</v>
       </c>
       <c r="C4">
-        <v>0.05872369608100628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03938957280117172</v>
+      </c>
+      <c r="D4">
+        <v>-0.07014571355444059</v>
+      </c>
+      <c r="E4">
+        <v>-0.0008527194226796219</v>
+      </c>
+      <c r="F4">
+        <v>0.02598086045692262</v>
+      </c>
+      <c r="G4">
+        <v>0.02236398312217834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0968455459004577</v>
+        <v>0.1122461673874595</v>
       </c>
       <c r="C6">
-        <v>0.06652028456958706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04565188150614438</v>
+      </c>
+      <c r="D6">
+        <v>-0.01206761129852016</v>
+      </c>
+      <c r="E6">
+        <v>-0.004052348707672513</v>
+      </c>
+      <c r="F6">
+        <v>0.04464709794818142</v>
+      </c>
+      <c r="G6">
+        <v>-0.01806649248903414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04489590374038685</v>
+        <v>0.05383075098872295</v>
       </c>
       <c r="C7">
-        <v>0.03472604466361772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02590086232213341</v>
+      </c>
+      <c r="D7">
+        <v>-0.03378160330498713</v>
+      </c>
+      <c r="E7">
+        <v>0.02333737097425311</v>
+      </c>
+      <c r="F7">
+        <v>0.02889587344644366</v>
+      </c>
+      <c r="G7">
+        <v>0.03722778647523544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03253634280622262</v>
+        <v>0.03342800275270733</v>
       </c>
       <c r="C8">
-        <v>0.02683666054184199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01717494642431667</v>
+      </c>
+      <c r="D8">
+        <v>-0.03961753617818028</v>
+      </c>
+      <c r="E8">
+        <v>0.01015349700238709</v>
+      </c>
+      <c r="F8">
+        <v>0.04821966429171479</v>
+      </c>
+      <c r="G8">
+        <v>-0.02236248508772531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06193047256400104</v>
+        <v>0.06917930011091465</v>
       </c>
       <c r="C9">
-        <v>0.04557992860604436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02894966878296247</v>
+      </c>
+      <c r="D9">
+        <v>-0.07053362587644423</v>
+      </c>
+      <c r="E9">
+        <v>0.01823603844846305</v>
+      </c>
+      <c r="F9">
+        <v>0.03405888856242159</v>
+      </c>
+      <c r="G9">
+        <v>0.00844374166923963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0297050865451007</v>
+        <v>0.04140211060836896</v>
       </c>
       <c r="C10">
-        <v>0.03830830229976293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03915150276707247</v>
+      </c>
+      <c r="D10">
+        <v>0.1844095812124841</v>
+      </c>
+      <c r="E10">
+        <v>0.04648992223077068</v>
+      </c>
+      <c r="F10">
+        <v>0.03134228048980479</v>
+      </c>
+      <c r="G10">
+        <v>0.02602181094910779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06987766772884299</v>
+        <v>0.07561483853851472</v>
       </c>
       <c r="C11">
-        <v>0.05304414925208349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03133355031978897</v>
+      </c>
+      <c r="D11">
+        <v>-0.06845180648694664</v>
+      </c>
+      <c r="E11">
+        <v>-0.007812227500123455</v>
+      </c>
+      <c r="F11">
+        <v>0.03443492284959299</v>
+      </c>
+      <c r="G11">
+        <v>0.03909725577442268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05289182840281308</v>
+        <v>0.06031893655391379</v>
       </c>
       <c r="C12">
-        <v>0.05160549904651381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03541201424100032</v>
+      </c>
+      <c r="D12">
+        <v>-0.05120729992838653</v>
+      </c>
+      <c r="E12">
+        <v>0.008865123794628876</v>
+      </c>
+      <c r="F12">
+        <v>0.02402978568800524</v>
+      </c>
+      <c r="G12">
+        <v>0.0333657060932922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05904591171678206</v>
+        <v>0.06426250243841768</v>
       </c>
       <c r="C13">
-        <v>0.0516786777811042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03068935444150592</v>
+      </c>
+      <c r="D13">
+        <v>-0.05289179603483032</v>
+      </c>
+      <c r="E13">
+        <v>0.00946714759357282</v>
+      </c>
+      <c r="F13">
+        <v>0.01686859526301793</v>
+      </c>
+      <c r="G13">
+        <v>0.01708599844183931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03309309123472544</v>
+        <v>0.03815548519032802</v>
       </c>
       <c r="C14">
-        <v>0.02889179081925251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02227654360693892</v>
+      </c>
+      <c r="D14">
+        <v>-0.009938086965661484</v>
+      </c>
+      <c r="E14">
+        <v>0.01684576084332311</v>
+      </c>
+      <c r="F14">
+        <v>0.01387469393527852</v>
+      </c>
+      <c r="G14">
+        <v>-0.006791116362779097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03965443629433196</v>
+        <v>0.04031604591604065</v>
       </c>
       <c r="C15">
-        <v>0.01420194684731689</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.004952460760940735</v>
+      </c>
+      <c r="D15">
+        <v>-0.01892820860909818</v>
+      </c>
+      <c r="E15">
+        <v>0.04304898946983661</v>
+      </c>
+      <c r="F15">
+        <v>-0.002250269033661582</v>
+      </c>
+      <c r="G15">
+        <v>-0.01916667168750349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05802630186999349</v>
+        <v>0.06140960864541378</v>
       </c>
       <c r="C16">
-        <v>0.04392809583045294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02716017596816485</v>
+      </c>
+      <c r="D16">
+        <v>-0.06035092374639611</v>
+      </c>
+      <c r="E16">
+        <v>0.000699954800679596</v>
+      </c>
+      <c r="F16">
+        <v>0.02824640476537495</v>
+      </c>
+      <c r="G16">
+        <v>0.02419953237590075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06238655655806455</v>
+        <v>0.06135451347953579</v>
       </c>
       <c r="C20">
-        <v>0.03709481247169556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01820237605932344</v>
+      </c>
+      <c r="D20">
+        <v>-0.04984842627854414</v>
+      </c>
+      <c r="E20">
+        <v>0.01875337128788165</v>
+      </c>
+      <c r="F20">
+        <v>0.02416970952130234</v>
+      </c>
+      <c r="G20">
+        <v>0.02641107120640161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02652592904435199</v>
+        <v>0.02248609174171285</v>
       </c>
       <c r="C21">
-        <v>-0.000468229100729642</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01089313162855342</v>
+      </c>
+      <c r="D21">
+        <v>-0.03155978455990183</v>
+      </c>
+      <c r="E21">
+        <v>0.09202079049034674</v>
+      </c>
+      <c r="F21">
+        <v>-0.01212187464538035</v>
+      </c>
+      <c r="G21">
+        <v>-0.0207801454376284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06965592982319692</v>
+        <v>0.0694699528837447</v>
       </c>
       <c r="C22">
-        <v>0.07726696395753754</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04860819605073125</v>
+      </c>
+      <c r="D22">
+        <v>-0.1064783857395567</v>
+      </c>
+      <c r="E22">
+        <v>0.6028415509023891</v>
+      </c>
+      <c r="F22">
+        <v>-0.163277374974147</v>
+      </c>
+      <c r="G22">
+        <v>-0.04533184049918457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.07040700653708283</v>
+        <v>0.0701799079799674</v>
       </c>
       <c r="C23">
-        <v>0.07679186996434584</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04804898400069699</v>
+      </c>
+      <c r="D23">
+        <v>-0.1076128408008657</v>
+      </c>
+      <c r="E23">
+        <v>0.6020364795259104</v>
+      </c>
+      <c r="F23">
+        <v>-0.1629923720922047</v>
+      </c>
+      <c r="G23">
+        <v>-0.04687557047701603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06452185342852518</v>
+        <v>0.07225774700117277</v>
       </c>
       <c r="C24">
-        <v>0.05150511281328939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03253003607911791</v>
+      </c>
+      <c r="D24">
+        <v>-0.06707328859484848</v>
+      </c>
+      <c r="E24">
+        <v>0.007154722918698405</v>
+      </c>
+      <c r="F24">
+        <v>0.04253543237112746</v>
+      </c>
+      <c r="G24">
+        <v>0.01745578503867319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06537543835441001</v>
+        <v>0.07090412606479654</v>
       </c>
       <c r="C25">
-        <v>0.05778006726614951</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.0382571211659222</v>
+      </c>
+      <c r="D25">
+        <v>-0.06440003070598946</v>
+      </c>
+      <c r="E25">
+        <v>0.007701236000133884</v>
+      </c>
+      <c r="F25">
+        <v>0.03693128515267631</v>
+      </c>
+      <c r="G25">
+        <v>0.01512959067797506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03920192598286223</v>
+        <v>0.04011629609699514</v>
       </c>
       <c r="C26">
-        <v>0.01364559174564438</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005213456171213415</v>
+      </c>
+      <c r="D26">
+        <v>-0.02017385560543545</v>
+      </c>
+      <c r="E26">
+        <v>0.03946671194476428</v>
+      </c>
+      <c r="F26">
+        <v>0.01751112501653817</v>
+      </c>
+      <c r="G26">
+        <v>0.01964166198501905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05443425293391853</v>
+        <v>0.07622204459832148</v>
       </c>
       <c r="C28">
-        <v>0.07685136446720969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07711121610084859</v>
+      </c>
+      <c r="D28">
+        <v>0.3241058960448974</v>
+      </c>
+      <c r="E28">
+        <v>0.0468533792665067</v>
+      </c>
+      <c r="F28">
+        <v>0.04829017225182645</v>
+      </c>
+      <c r="G28">
+        <v>-0.02705770382191448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03615268245355632</v>
+        <v>0.04195969857771083</v>
       </c>
       <c r="C29">
-        <v>0.03265485264008227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02536762687586529</v>
+      </c>
+      <c r="D29">
+        <v>-0.009852906572996091</v>
+      </c>
+      <c r="E29">
+        <v>0.04127475799166472</v>
+      </c>
+      <c r="F29">
+        <v>0.00597537642267894</v>
+      </c>
+      <c r="G29">
+        <v>0.007411766552612585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1138215358966244</v>
+        <v>0.1269345535510298</v>
       </c>
       <c r="C30">
-        <v>0.09845109649886705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06650225319302687</v>
+      </c>
+      <c r="D30">
+        <v>-0.1049863072931638</v>
+      </c>
+      <c r="E30">
+        <v>0.04097415631204335</v>
+      </c>
+      <c r="F30">
+        <v>0.0118842798623409</v>
+      </c>
+      <c r="G30">
+        <v>-0.003690321378070375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03756681186811197</v>
+        <v>0.04279355888185326</v>
       </c>
       <c r="C31">
-        <v>0.02478929157893544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01569985430166585</v>
+      </c>
+      <c r="D31">
+        <v>-0.0297624812232837</v>
+      </c>
+      <c r="E31">
+        <v>0.02136234516818277</v>
+      </c>
+      <c r="F31">
+        <v>0.01369790493437792</v>
+      </c>
+      <c r="G31">
+        <v>0.01995609984084651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03199482605697356</v>
+        <v>0.03344530169116925</v>
       </c>
       <c r="C32">
-        <v>0.02895284208649765</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01810212997342668</v>
+      </c>
+      <c r="D32">
+        <v>-0.01609214373521313</v>
+      </c>
+      <c r="E32">
+        <v>0.06029369860915577</v>
+      </c>
+      <c r="F32">
+        <v>-0.01657924485112059</v>
+      </c>
+      <c r="G32">
+        <v>-0.003293166045972323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07647939975158921</v>
+        <v>0.08746808306475375</v>
       </c>
       <c r="C33">
-        <v>0.05122856919785771</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03302009260803149</v>
+      </c>
+      <c r="D33">
+        <v>-0.06408965864298326</v>
+      </c>
+      <c r="E33">
+        <v>0.01456460589781564</v>
+      </c>
+      <c r="F33">
+        <v>0.002878438391004687</v>
+      </c>
+      <c r="G33">
+        <v>0.03073373214094302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05145881290371011</v>
+        <v>0.05626821690338968</v>
       </c>
       <c r="C34">
-        <v>0.03266687532473178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01859355461332611</v>
+      </c>
+      <c r="D34">
+        <v>-0.05789430337886342</v>
+      </c>
+      <c r="E34">
+        <v>0.003206250336958205</v>
+      </c>
+      <c r="F34">
+        <v>0.02585724738548924</v>
+      </c>
+      <c r="G34">
+        <v>0.01572155074382489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03695434497827303</v>
+        <v>0.03954414026538281</v>
       </c>
       <c r="C35">
-        <v>0.01361072385063522</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.005986951993785027</v>
+      </c>
+      <c r="D35">
+        <v>-0.0102098918839996</v>
+      </c>
+      <c r="E35">
+        <v>0.03094900661810106</v>
+      </c>
+      <c r="F35">
+        <v>-0.004910827020511855</v>
+      </c>
+      <c r="G35">
+        <v>0.01052392040917022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01903506018056734</v>
+        <v>0.02253033241497384</v>
       </c>
       <c r="C36">
-        <v>0.01539023750531718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01009590285121022</v>
+      </c>
+      <c r="D36">
+        <v>-0.01902284360760479</v>
+      </c>
+      <c r="E36">
+        <v>0.03509505275876206</v>
+      </c>
+      <c r="F36">
+        <v>0.01648446437801726</v>
+      </c>
+      <c r="G36">
+        <v>0.01897535144415344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03706909179742849</v>
+        <v>0.03966684213245968</v>
       </c>
       <c r="C38">
-        <v>0.01278919512546932</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.003643618976680742</v>
+      </c>
+      <c r="D38">
+        <v>-0.01198712175323724</v>
+      </c>
+      <c r="E38">
+        <v>0.06022387081872412</v>
+      </c>
+      <c r="F38">
+        <v>-0.0242774637186089</v>
+      </c>
+      <c r="G38">
+        <v>-0.02636049578937895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08719004836136914</v>
+        <v>0.09860576979183397</v>
       </c>
       <c r="C39">
-        <v>0.07995361650157438</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05356506772021891</v>
+      </c>
+      <c r="D39">
+        <v>-0.08663035914979073</v>
+      </c>
+      <c r="E39">
+        <v>-0.01854051954517719</v>
+      </c>
+      <c r="F39">
+        <v>0.02230390109336837</v>
+      </c>
+      <c r="G39">
+        <v>-0.006630391301682275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06829406546221513</v>
+        <v>0.07506964363391319</v>
       </c>
       <c r="C40">
-        <v>0.05826838626027905</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.04025166645255848</v>
+      </c>
+      <c r="D40">
+        <v>-0.01076613410612286</v>
+      </c>
+      <c r="E40">
+        <v>0.02934971177308303</v>
+      </c>
+      <c r="F40">
+        <v>-0.04561162113195004</v>
+      </c>
+      <c r="G40">
+        <v>-0.03793167470568638</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03876929225587428</v>
+        <v>0.04206000624731148</v>
       </c>
       <c r="C41">
-        <v>0.01612646502347298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.007860819540133932</v>
+      </c>
+      <c r="D41">
+        <v>-0.04337466492041121</v>
+      </c>
+      <c r="E41">
+        <v>0.008514035827987463</v>
+      </c>
+      <c r="F41">
+        <v>-0.0105224866207352</v>
+      </c>
+      <c r="G41">
+        <v>-0.00188412299826128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0409574378959407</v>
+        <v>0.04885183120671728</v>
       </c>
       <c r="C43">
-        <v>0.03677777274603667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02355318279475168</v>
+      </c>
+      <c r="D43">
+        <v>-0.02896296344225265</v>
+      </c>
+      <c r="E43">
+        <v>0.0184020070811144</v>
+      </c>
+      <c r="F43">
+        <v>0.009029477948313063</v>
+      </c>
+      <c r="G43">
+        <v>0.01618760444036849</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08664747578798983</v>
+        <v>0.08886189462423202</v>
       </c>
       <c r="C44">
-        <v>0.09141618565922352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06065796145390658</v>
+      </c>
+      <c r="D44">
+        <v>-0.06350978150113108</v>
+      </c>
+      <c r="E44">
+        <v>0.09471608426992424</v>
+      </c>
+      <c r="F44">
+        <v>0.05528668902216201</v>
+      </c>
+      <c r="G44">
+        <v>-0.001388741019949729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02768047365360982</v>
+        <v>0.02835013929946913</v>
       </c>
       <c r="C46">
-        <v>0.01961863988409724</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.0123825479684263</v>
+      </c>
+      <c r="D46">
+        <v>-0.03295303988406313</v>
+      </c>
+      <c r="E46">
+        <v>0.02121538660794307</v>
+      </c>
+      <c r="F46">
+        <v>0.0181525593390942</v>
+      </c>
+      <c r="G46">
+        <v>-0.006327770645377715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0294039466072194</v>
+        <v>0.03263162618515763</v>
       </c>
       <c r="C47">
-        <v>0.02154460231082371</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01349582790601414</v>
+      </c>
+      <c r="D47">
+        <v>-0.0177369485952275</v>
+      </c>
+      <c r="E47">
+        <v>0.05067344688633492</v>
+      </c>
+      <c r="F47">
+        <v>0.01019955995910719</v>
+      </c>
+      <c r="G47">
+        <v>0.02683340556619329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02807252088841786</v>
+        <v>0.0320789151030948</v>
       </c>
       <c r="C48">
-        <v>0.01904712673267396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01190625661084531</v>
+      </c>
+      <c r="D48">
+        <v>-0.02891457131273301</v>
+      </c>
+      <c r="E48">
+        <v>0.04265970285754996</v>
+      </c>
+      <c r="F48">
+        <v>0.0162267142089629</v>
+      </c>
+      <c r="G48">
+        <v>0.01132179390914475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1558930918154973</v>
+        <v>0.1770476153154381</v>
       </c>
       <c r="C49">
-        <v>0.09566788983713349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05958701646998617</v>
+      </c>
+      <c r="D49">
+        <v>-0.01010902205834293</v>
+      </c>
+      <c r="E49">
+        <v>-0.1148761457776067</v>
+      </c>
+      <c r="F49">
+        <v>0.01970107336972068</v>
+      </c>
+      <c r="G49">
+        <v>0.07263502604926522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03228585555734433</v>
+        <v>0.03978846999783505</v>
       </c>
       <c r="C50">
-        <v>0.02638091443474233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02157478314230281</v>
+      </c>
+      <c r="D50">
+        <v>-0.03901072055663909</v>
+      </c>
+      <c r="E50">
+        <v>0.04619868774737302</v>
+      </c>
+      <c r="F50">
+        <v>0.02493442579861212</v>
+      </c>
+      <c r="G50">
+        <v>0.02103739021673146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02485433556786565</v>
+        <v>0.02617022641129777</v>
       </c>
       <c r="C51">
-        <v>0.01907004819796899</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.01154396599222144</v>
+      </c>
+      <c r="D51">
+        <v>-0.02578255027005068</v>
+      </c>
+      <c r="E51">
+        <v>0.01455490894480779</v>
+      </c>
+      <c r="F51">
+        <v>0.007056986268601203</v>
+      </c>
+      <c r="G51">
+        <v>-0.008868173323114336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1421181898536579</v>
+        <v>0.1598644940712425</v>
       </c>
       <c r="C53">
-        <v>0.1027789933047523</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.07010208754444119</v>
+      </c>
+      <c r="D53">
+        <v>-0.02378233248346242</v>
+      </c>
+      <c r="E53">
+        <v>-0.0340654573409977</v>
+      </c>
+      <c r="F53">
+        <v>0.02654205176598105</v>
+      </c>
+      <c r="G53">
+        <v>0.02753913986951242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05244055980950289</v>
+        <v>0.0560337256799617</v>
       </c>
       <c r="C54">
-        <v>0.02582531677476127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01264495745757777</v>
+      </c>
+      <c r="D54">
+        <v>-0.03672917844033285</v>
+      </c>
+      <c r="E54">
+        <v>0.04033806478227704</v>
+      </c>
+      <c r="F54">
+        <v>0.0104010043144804</v>
+      </c>
+      <c r="G54">
+        <v>0.01100039229861091</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09373118729780519</v>
+        <v>0.1005935708030612</v>
       </c>
       <c r="C55">
-        <v>0.0640094768506302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04319821407256307</v>
+      </c>
+      <c r="D55">
+        <v>-0.03303898316001005</v>
+      </c>
+      <c r="E55">
+        <v>0.009098937933197481</v>
+      </c>
+      <c r="F55">
+        <v>0.02807051011899657</v>
+      </c>
+      <c r="G55">
+        <v>0.01045031663016188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1373358986928312</v>
+        <v>0.1585982470792017</v>
       </c>
       <c r="C56">
-        <v>0.1107688003953868</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07746684565206398</v>
+      </c>
+      <c r="D56">
+        <v>-0.01731099871220062</v>
+      </c>
+      <c r="E56">
+        <v>-0.03624058327326788</v>
+      </c>
+      <c r="F56">
+        <v>0.06047436785699682</v>
+      </c>
+      <c r="G56">
+        <v>0.04186078476104042</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1163566757493828</v>
+        <v>0.1083831365579281</v>
       </c>
       <c r="C58">
-        <v>0.03362563569392529</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.00102042964136494</v>
+      </c>
+      <c r="D58">
+        <v>-0.05189164000659218</v>
+      </c>
+      <c r="E58">
+        <v>0.1771130616271252</v>
+      </c>
+      <c r="F58">
+        <v>0.04351270150425929</v>
+      </c>
+      <c r="G58">
+        <v>0.04145474732961495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1070695925143765</v>
+        <v>0.148009125906134</v>
       </c>
       <c r="C59">
-        <v>0.08864634093780523</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08613438813399397</v>
+      </c>
+      <c r="D59">
+        <v>0.3493127023516181</v>
+      </c>
+      <c r="E59">
+        <v>0.0431949748972603</v>
+      </c>
+      <c r="F59">
+        <v>-0.02682074480077289</v>
+      </c>
+      <c r="G59">
+        <v>0.009400178978043516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1825881709752633</v>
+        <v>0.2124578779032289</v>
       </c>
       <c r="C60">
-        <v>0.1174484920906838</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07979125532386461</v>
+      </c>
+      <c r="D60">
+        <v>-0.01704416253634992</v>
+      </c>
+      <c r="E60">
+        <v>-0.07410075076762494</v>
+      </c>
+      <c r="F60">
+        <v>0.0422706715635014</v>
+      </c>
+      <c r="G60">
+        <v>-0.03267041037210582</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0765425298883412</v>
+        <v>0.08342918171911454</v>
       </c>
       <c r="C61">
-        <v>0.05826815069480066</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03806748754298345</v>
+      </c>
+      <c r="D61">
+        <v>-0.06188233922034241</v>
+      </c>
+      <c r="E61">
+        <v>-0.01356349879504702</v>
+      </c>
+      <c r="F61">
+        <v>0.005575908144664786</v>
+      </c>
+      <c r="G61">
+        <v>0.0346307087867827</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1168838773357087</v>
+        <v>0.1379772198121541</v>
       </c>
       <c r="C62">
-        <v>0.08376219649177091</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05972872114786938</v>
+      </c>
+      <c r="D62">
+        <v>-0.0271732491437366</v>
+      </c>
+      <c r="E62">
+        <v>-0.05275940111254298</v>
+      </c>
+      <c r="F62">
+        <v>0.02818537276922702</v>
+      </c>
+      <c r="G62">
+        <v>-0.0103943050194913</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04905121819867035</v>
+        <v>0.05150823562352832</v>
       </c>
       <c r="C63">
-        <v>0.02944128838388798</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01783983678390873</v>
+      </c>
+      <c r="D63">
+        <v>-0.03042885219263424</v>
+      </c>
+      <c r="E63">
+        <v>0.04716601007298052</v>
+      </c>
+      <c r="F63">
+        <v>0.01501556730611675</v>
+      </c>
+      <c r="G63">
+        <v>-0.02217579427672704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.105785806280532</v>
+        <v>0.1102181748104577</v>
       </c>
       <c r="C64">
-        <v>0.04697053894524785</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.02440089038838608</v>
+      </c>
+      <c r="D64">
+        <v>-0.04819164762601052</v>
+      </c>
+      <c r="E64">
+        <v>0.03167190073272721</v>
+      </c>
+      <c r="F64">
+        <v>0.05020813685941743</v>
+      </c>
+      <c r="G64">
+        <v>-0.01283315955595003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1076735442105538</v>
+        <v>0.121110789286834</v>
       </c>
       <c r="C65">
-        <v>0.0662299316509562</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04454830579855373</v>
+      </c>
+      <c r="D65">
+        <v>-0.01546133504366865</v>
+      </c>
+      <c r="E65">
+        <v>-0.006143814204739518</v>
+      </c>
+      <c r="F65">
+        <v>0.06115650257731275</v>
+      </c>
+      <c r="G65">
+        <v>-0.03898321602870353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1347572303867181</v>
+        <v>0.1503903558482295</v>
       </c>
       <c r="C66">
-        <v>0.08991683612414521</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05614986368368356</v>
+      </c>
+      <c r="D66">
+        <v>-0.1221342781367011</v>
+      </c>
+      <c r="E66">
+        <v>-0.05357219711903209</v>
+      </c>
+      <c r="F66">
+        <v>0.04185520435828019</v>
+      </c>
+      <c r="G66">
+        <v>0.01622864760811712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06874267658077146</v>
+        <v>0.07319112939811444</v>
       </c>
       <c r="C67">
-        <v>0.02495740940548286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.008615173364778713</v>
+      </c>
+      <c r="D67">
+        <v>-0.02558962484773578</v>
+      </c>
+      <c r="E67">
+        <v>0.02922156057473042</v>
+      </c>
+      <c r="F67">
+        <v>-0.006592420018157358</v>
+      </c>
+      <c r="G67">
+        <v>-0.00199877393524725</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.0543936628324814</v>
+        <v>0.07031353750821952</v>
       </c>
       <c r="C68">
-        <v>0.04940927213455949</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04906774647738497</v>
+      </c>
+      <c r="D68">
+        <v>0.2650190512573652</v>
+      </c>
+      <c r="E68">
+        <v>0.04717246309087546</v>
+      </c>
+      <c r="F68">
+        <v>0.009947301350973282</v>
+      </c>
+      <c r="G68">
+        <v>0.001618291873212631</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0473103148496193</v>
+        <v>0.0507381274461694</v>
       </c>
       <c r="C69">
-        <v>0.02752220394991335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01279327641360868</v>
+      </c>
+      <c r="D69">
+        <v>-0.03661363394141986</v>
+      </c>
+      <c r="E69">
+        <v>0.01683100236627618</v>
+      </c>
+      <c r="F69">
+        <v>0.002137384331287144</v>
+      </c>
+      <c r="G69">
+        <v>0.0106683109068673</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.003451900370316391</v>
+        <v>0.01074809928948253</v>
       </c>
       <c r="C70">
-        <v>-0.001819285094938843</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0009224968199725955</v>
+      </c>
+      <c r="D70">
+        <v>0.001852399159961894</v>
+      </c>
+      <c r="E70">
+        <v>-0.00568800157433807</v>
+      </c>
+      <c r="F70">
+        <v>-0.003831060810060668</v>
+      </c>
+      <c r="G70">
+        <v>0.0001153409106203157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.0570767918008191</v>
+        <v>0.07390843525705565</v>
       </c>
       <c r="C71">
-        <v>0.05039042082986189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04920909965770819</v>
+      </c>
+      <c r="D71">
+        <v>0.2985299616243028</v>
+      </c>
+      <c r="E71">
+        <v>0.04948843087762938</v>
+      </c>
+      <c r="F71">
+        <v>0.02987989217982451</v>
+      </c>
+      <c r="G71">
+        <v>0.004540794477917963</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.128922653783949</v>
+        <v>0.1497201861385991</v>
       </c>
       <c r="C72">
-        <v>0.07742020300816432</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.05159940105994607</v>
+      </c>
+      <c r="D72">
+        <v>-0.01519495420819852</v>
+      </c>
+      <c r="E72">
+        <v>-0.1089744523752527</v>
+      </c>
+      <c r="F72">
+        <v>-0.1465423326136414</v>
+      </c>
+      <c r="G72">
+        <v>-0.1171727876896198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2421741907062912</v>
+        <v>0.2678490061424126</v>
       </c>
       <c r="C73">
-        <v>0.1407269725579285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08772321428944251</v>
+      </c>
+      <c r="D73">
+        <v>-0.06461318712147346</v>
+      </c>
+      <c r="E73">
+        <v>-0.1857696241420774</v>
+      </c>
+      <c r="F73">
+        <v>0.08054425833014103</v>
+      </c>
+      <c r="G73">
+        <v>0.1589200670908088</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07646533508837185</v>
+        <v>0.08867120484213556</v>
       </c>
       <c r="C74">
-        <v>0.08154151480189875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06237586577705773</v>
+      </c>
+      <c r="D74">
+        <v>-0.03570784934768109</v>
+      </c>
+      <c r="E74">
+        <v>-0.003340691622518623</v>
+      </c>
+      <c r="F74">
+        <v>-0.004670293977795397</v>
+      </c>
+      <c r="G74">
+        <v>0.03686550278141164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09583380552940594</v>
+        <v>0.1078426375552924</v>
       </c>
       <c r="C75">
-        <v>0.07322707213621021</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.04497940249262659</v>
+      </c>
+      <c r="D75">
+        <v>-0.02021929302792244</v>
+      </c>
+      <c r="E75">
+        <v>0.008876702489670873</v>
+      </c>
+      <c r="F75">
+        <v>0.06941523688869479</v>
+      </c>
+      <c r="G75">
+        <v>0.01497571151776692</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1181565274241817</v>
+        <v>0.1331118562409367</v>
       </c>
       <c r="C76">
-        <v>0.09976230960562664</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06919355075171379</v>
+      </c>
+      <c r="D76">
+        <v>-0.05665494745825305</v>
+      </c>
+      <c r="E76">
+        <v>0.008990363124799932</v>
+      </c>
+      <c r="F76">
+        <v>0.07087575805248199</v>
+      </c>
+      <c r="G76">
+        <v>0.02208614640908455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.09433717832302195</v>
+        <v>0.1010298810025007</v>
       </c>
       <c r="C77">
-        <v>0.06705020098818851</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.03449969878668493</v>
+      </c>
+      <c r="D77">
+        <v>-0.04111639740141274</v>
+      </c>
+      <c r="E77">
+        <v>-0.06047427129098758</v>
+      </c>
+      <c r="F77">
+        <v>0.3024525766005606</v>
+      </c>
+      <c r="G77">
+        <v>-0.8862058880841824</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08417057184129188</v>
+        <v>0.09959537957033582</v>
       </c>
       <c r="C78">
-        <v>0.04770354856704496</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03157204972307182</v>
+      </c>
+      <c r="D78">
+        <v>-0.07382624031602721</v>
+      </c>
+      <c r="E78">
+        <v>0.05427221962221807</v>
+      </c>
+      <c r="F78">
+        <v>-0.009967889984685093</v>
+      </c>
+      <c r="G78">
+        <v>-0.02948689552225657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1349304351304669</v>
+        <v>0.1509266991572784</v>
       </c>
       <c r="C79">
-        <v>0.1024526456034128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06554170777147006</v>
+      </c>
+      <c r="D79">
+        <v>-0.03170596467053749</v>
+      </c>
+      <c r="E79">
+        <v>-0.02002913952847549</v>
+      </c>
+      <c r="F79">
+        <v>0.03998746182390065</v>
+      </c>
+      <c r="G79">
+        <v>0.02178331566662221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04477275230114246</v>
+        <v>0.04007803063950044</v>
       </c>
       <c r="C80">
-        <v>0.01887738990959555</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.005881856579817247</v>
+      </c>
+      <c r="D80">
+        <v>-0.02692963736386334</v>
+      </c>
+      <c r="E80">
+        <v>0.01058117325073999</v>
+      </c>
+      <c r="F80">
+        <v>-0.03173861366766084</v>
+      </c>
+      <c r="G80">
+        <v>0.04570884139827756</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1082235381786889</v>
+        <v>0.1205058418062167</v>
       </c>
       <c r="C81">
-        <v>0.08087837019263081</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05220760776264972</v>
+      </c>
+      <c r="D81">
+        <v>-0.03818487587943922</v>
+      </c>
+      <c r="E81">
+        <v>-0.006286990389016831</v>
+      </c>
+      <c r="F81">
+        <v>0.03749875543573045</v>
+      </c>
+      <c r="G81">
+        <v>0.05822075693459779</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1146038934295454</v>
+        <v>0.1259388086326817</v>
       </c>
       <c r="C82">
-        <v>0.09430912624435016</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06117877226092017</v>
+      </c>
+      <c r="D82">
+        <v>-0.03773934137381745</v>
+      </c>
+      <c r="E82">
+        <v>-0.0247434765951232</v>
+      </c>
+      <c r="F82">
+        <v>0.05570228426072239</v>
+      </c>
+      <c r="G82">
+        <v>0.06525257093435197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07161351378130784</v>
+        <v>0.07011345618208537</v>
       </c>
       <c r="C83">
-        <v>0.01606958891576648</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.004952258664228228</v>
+      </c>
+      <c r="D83">
+        <v>-0.0432005683310892</v>
+      </c>
+      <c r="E83">
+        <v>0.01314922946892326</v>
+      </c>
+      <c r="F83">
+        <v>0.0008047835075938201</v>
+      </c>
+      <c r="G83">
+        <v>0.0554540871713056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02437447486024137</v>
+        <v>0.03294534451604723</v>
       </c>
       <c r="C84">
-        <v>0.01927724043570401</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01880148887797916</v>
+      </c>
+      <c r="D84">
+        <v>-0.01489208476242061</v>
+      </c>
+      <c r="E84">
+        <v>0.009095203372213799</v>
+      </c>
+      <c r="F84">
+        <v>-0.0333220973873146</v>
+      </c>
+      <c r="G84">
+        <v>0.03752736213833319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1168246358115152</v>
+        <v>0.1186827319247567</v>
       </c>
       <c r="C85">
-        <v>0.08111998899884559</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04593168833940756</v>
+      </c>
+      <c r="D85">
+        <v>-0.03677422076597665</v>
+      </c>
+      <c r="E85">
+        <v>0.01384176505124186</v>
+      </c>
+      <c r="F85">
+        <v>0.08549799804483808</v>
+      </c>
+      <c r="G85">
+        <v>0.008054038724580898</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04391923937100409</v>
+        <v>0.04665421880308571</v>
       </c>
       <c r="C86">
-        <v>0.02517076104663905</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01157866951980022</v>
+      </c>
+      <c r="D86">
+        <v>-0.0155267382254113</v>
+      </c>
+      <c r="E86">
+        <v>0.04415795816086885</v>
+      </c>
+      <c r="F86">
+        <v>0.0135735688045345</v>
+      </c>
+      <c r="G86">
+        <v>-0.0001771904167384888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1127730143763068</v>
+        <v>0.1184817185015919</v>
       </c>
       <c r="C87">
-        <v>0.08043963237218771</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04732181334128543</v>
+      </c>
+      <c r="D87">
+        <v>-0.0746513783556554</v>
+      </c>
+      <c r="E87">
+        <v>0.01362175851981408</v>
+      </c>
+      <c r="F87">
+        <v>0.0328221763057133</v>
+      </c>
+      <c r="G87">
+        <v>-0.1003582493686617</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05304437227794798</v>
+        <v>0.05707024774216753</v>
       </c>
       <c r="C88">
-        <v>0.04253035926620704</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02619502984811584</v>
+      </c>
+      <c r="D88">
+        <v>-0.02711994141093008</v>
+      </c>
+      <c r="E88">
+        <v>0.02130321299647343</v>
+      </c>
+      <c r="F88">
+        <v>0.007617272745124086</v>
+      </c>
+      <c r="G88">
+        <v>-0.006574578018565768</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07574857805700146</v>
+        <v>0.1068992307903349</v>
       </c>
       <c r="C89">
-        <v>0.08307578378534342</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.08058349403982605</v>
+      </c>
+      <c r="D89">
+        <v>0.3261121865621382</v>
+      </c>
+      <c r="E89">
+        <v>0.09157906310831884</v>
+      </c>
+      <c r="F89">
+        <v>0.04579833326831298</v>
+      </c>
+      <c r="G89">
+        <v>0.01328593431265077</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07071633607156157</v>
+        <v>0.09192758096723867</v>
       </c>
       <c r="C90">
-        <v>0.0744799877161634</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.07016947509493705</v>
+      </c>
+      <c r="D90">
+        <v>0.3119800672253891</v>
+      </c>
+      <c r="E90">
+        <v>0.07498519149026023</v>
+      </c>
+      <c r="F90">
+        <v>-0.024683422168469</v>
+      </c>
+      <c r="G90">
+        <v>0.0163226230672693</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07952409748037484</v>
+        <v>0.08914098533458112</v>
       </c>
       <c r="C91">
-        <v>0.06477369119690617</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04281992843971263</v>
+      </c>
+      <c r="D91">
+        <v>-0.02871926494482574</v>
+      </c>
+      <c r="E91">
+        <v>0.004946799278934506</v>
+      </c>
+      <c r="F91">
+        <v>0.01530886744961226</v>
+      </c>
+      <c r="G91">
+        <v>0.03435129037193509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08412639154703377</v>
+        <v>0.1056427867651247</v>
       </c>
       <c r="C92">
-        <v>0.06660731100647863</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06336124037774661</v>
+      </c>
+      <c r="D92">
+        <v>0.3289730507741945</v>
+      </c>
+      <c r="E92">
+        <v>0.028374607049234</v>
+      </c>
+      <c r="F92">
+        <v>0.02626088955023196</v>
+      </c>
+      <c r="G92">
+        <v>-0.0203252375306422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06224656588196315</v>
+        <v>0.08695711544455496</v>
       </c>
       <c r="C93">
-        <v>0.06949602677487457</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06844778121243154</v>
+      </c>
+      <c r="D93">
+        <v>0.298327944702155</v>
+      </c>
+      <c r="E93">
+        <v>0.0427247710182073</v>
+      </c>
+      <c r="F93">
+        <v>0.03241082881598262</v>
+      </c>
+      <c r="G93">
+        <v>-0.01219345723921981</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1257411456234354</v>
+        <v>0.1288527031106771</v>
       </c>
       <c r="C94">
-        <v>0.07926531327195308</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03935009330299895</v>
+      </c>
+      <c r="D94">
+        <v>-0.05790173316131596</v>
+      </c>
+      <c r="E94">
+        <v>-0.02605969403257859</v>
+      </c>
+      <c r="F94">
+        <v>0.05151976069771295</v>
+      </c>
+      <c r="G94">
+        <v>0.04025070106118206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.114248129694113</v>
+        <v>0.1193511453827839</v>
       </c>
       <c r="C95">
-        <v>0.05498999006106393</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02731345618425833</v>
+      </c>
+      <c r="D95">
+        <v>-0.05892487009428701</v>
+      </c>
+      <c r="E95">
+        <v>-0.01309217875890803</v>
+      </c>
+      <c r="F95">
+        <v>0.03790981138023316</v>
+      </c>
+      <c r="G95">
+        <v>-0.009752381310379097</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1876970902609039</v>
+        <v>0.2223875859224907</v>
       </c>
       <c r="C97">
-        <v>0.07442187776618103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.04212655661006373</v>
+      </c>
+      <c r="D97">
+        <v>0.004672903610703017</v>
+      </c>
+      <c r="E97">
+        <v>-0.2337260436061319</v>
+      </c>
+      <c r="F97">
+        <v>-0.861890942838812</v>
+      </c>
+      <c r="G97">
+        <v>-0.2327624844360267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2355978704618221</v>
+        <v>0.2576366796260091</v>
       </c>
       <c r="C98">
-        <v>0.1197314658981661</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.0619820776082465</v>
+      </c>
+      <c r="D98">
+        <v>-0.03929835739201948</v>
+      </c>
+      <c r="E98">
+        <v>-0.1406109855126889</v>
+      </c>
+      <c r="F98">
+        <v>0.02023505297401395</v>
+      </c>
+      <c r="G98">
+        <v>0.2328875538364075</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5635102328520776</v>
+        <v>0.373358750884199</v>
       </c>
       <c r="C99">
-        <v>-0.8160686221457566</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9169420732858329</v>
+      </c>
+      <c r="D99">
+        <v>0.07325788456556738</v>
+      </c>
+      <c r="E99">
+        <v>0.04910023002835792</v>
+      </c>
+      <c r="F99">
+        <v>0.03598658158110245</v>
+      </c>
+      <c r="G99">
+        <v>0.002435363518108506</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03637200713227687</v>
+        <v>0.04213043355372367</v>
       </c>
       <c r="C101">
-        <v>0.03280606107646259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02542469913147842</v>
+      </c>
+      <c r="D101">
+        <v>-0.01053915233557719</v>
+      </c>
+      <c r="E101">
+        <v>0.04039012039998986</v>
+      </c>
+      <c r="F101">
+        <v>0.005468944976203109</v>
+      </c>
+      <c r="G101">
+        <v>0.00791592303494516</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
